--- a/templates/QARSF/RSTK-9518-Rework Work Order.xlsx
+++ b/templates/QARSF/RSTK-9518-Rework Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86652CE8-6995-4ABB-87E0-CEE67E2112C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47A4E37-D835-41A1-AAF5-573615EE644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="83">
   <si>
     <t>Site</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>8/16/2026</t>
+  </si>
+  <si>
+    <t>Subcontract Lead Time</t>
   </si>
 </sst>
 </file>
@@ -287,17 +290,10 @@
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,13 +338,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +643,7 @@
     <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.109375" bestFit="1" customWidth="1"/>
@@ -661,40 +656,40 @@
     <col min="21" max="21" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -702,21 +697,20 @@
         <v>8</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
       <c r="E3" t="s">
         <v>7</v>
       </c>
@@ -724,10 +718,10 @@
         <v>8</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -747,29 +741,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -777,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,9 +775,11 @@
     <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -859,10 +834,13 @@
       <c r="R1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -910,9 +888,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -960,9 +938,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1010,312 +988,6 @@
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="P10" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1331,7 +1003,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1406,10 +1078,10 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>44537</v>
       </c>
       <c r="E2">
@@ -1435,7 +1107,7 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E3">
@@ -1461,7 +1133,7 @@
       <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
@@ -1487,7 +1159,7 @@
       <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E5">
@@ -1516,10 +1188,10 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>44537</v>
       </c>
       <c r="E6">
@@ -1545,7 +1217,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7">
@@ -1571,7 +1243,7 @@
       <c r="A8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E8">
@@ -1597,7 +1269,7 @@
       <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E9">
@@ -1626,10 +1298,10 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>44537</v>
       </c>
       <c r="E10">
@@ -1655,7 +1327,7 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E11">
@@ -1681,7 +1353,7 @@
       <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E12">
@@ -1707,7 +1379,7 @@
       <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E13">
@@ -1736,10 +1408,10 @@
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>44537</v>
       </c>
       <c r="E14">
@@ -1765,7 +1437,7 @@
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E15">
@@ -1791,7 +1463,7 @@
       <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E16">
@@ -1817,7 +1489,7 @@
       <c r="A17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E17">
@@ -1840,7 +1512,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1850,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
@@ -1869,7 +1541,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -1907,7 +1579,7 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F2" t="s">
@@ -1933,7 +1605,7 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F3" t="s">
@@ -1959,7 +1631,7 @@
       <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F4" t="s">
@@ -1985,7 +1657,7 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F5" t="s">
@@ -2011,7 +1683,7 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F6" t="s">
@@ -2037,7 +1709,7 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F7" t="s">
@@ -2063,7 +1735,7 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
@@ -2104,7 +1776,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -2192,7 +1864,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
@@ -2342,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EC26A-E704-4A02-9DEB-2216FF4892C8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2353,7 +2025,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
